--- a/hardware/epdiy-v7/epaper-breakout-top-pos.xlsx
+++ b/hardware/epdiy-v7/epaper-breakout-top-pos.xlsx
@@ -4,13 +4,13 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="10170" windowHeight="8010"/>
+    <workbookView activeTab="0" windowWidth="14400" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="epaper-breakout-top-pos.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="epaper-breakout-all-pos.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"epaper-breakout-top-pos.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"epaper-breakout-all-pos.csv"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
@@ -73,12 +73,16 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -95,23 +99,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B1" sqref="B1:C65536"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.142307692307693"/>
-    <col min="2" max="2" style="1" width="11.570733173076924" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" style="1" width="11.999278846153848" bestFit="1" customWidth="1"/>
-    <col min="5" max="254" style="1" width="9.142307692307693"/>
-    <col min="255" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="9.142307692307693"/>
+    <col min="2" max="2" style="0" width="11.570733173076924" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" style="0" width="11.999278846153848" bestFit="1" customWidth="1"/>
+    <col min="5" max="256" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Designator</t>
         </is>
@@ -131,7 +134,7 @@
           <t>Rotation</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Layer</t>
         </is>
@@ -143,13 +146,13 @@
           <t>C1</t>
         </is>
       </c>
-      <c r="B2" s="2">
-        <v>73.659999999999997</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-47.497999999999998</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3">
+        <v>70.519999999999996</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-57.923000000000002</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -162,13 +165,13 @@
           <t>C2</t>
         </is>
       </c>
-      <c r="B3" s="2">
-        <v>78.799999999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-39.899999999999999</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="3">
+        <v>75.659999999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-50.325000000000003</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -181,13 +184,13 @@
           <t>C3</t>
         </is>
       </c>
-      <c r="B4" s="2">
-        <v>78.75</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-46.799999999999997</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3">
+        <v>75.609999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-57.225000000000001</v>
+      </c>
+      <c r="D4" s="3">
         <v>180</v>
       </c>
       <c r="E4" t="s">
@@ -200,13 +203,13 @@
           <t>C4</t>
         </is>
       </c>
-      <c r="B5" s="2">
-        <v>73.659999999999997</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-45.224699999999999</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>70.519999999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-55.649700000000003</v>
+      </c>
+      <c r="D5" s="3">
         <v>180</v>
       </c>
       <c r="E5" t="s">
@@ -219,13 +222,13 @@
           <t>C5</t>
         </is>
       </c>
-      <c r="B6" s="2">
-        <v>71.120000000000005</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-37.845999999999997</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>67.980000000000004</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-48.271000000000001</v>
+      </c>
+      <c r="D6" s="3">
         <v>-90</v>
       </c>
       <c r="E6" t="s">
@@ -238,13 +241,13 @@
           <t>C6</t>
         </is>
       </c>
-      <c r="B7" s="2">
-        <v>73.659999999999997</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-42.926000000000002</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>70.519999999999996</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-53.350999999999999</v>
+      </c>
+      <c r="D7" s="3">
         <v>180</v>
       </c>
       <c r="E7" t="s">
@@ -257,13 +260,13 @@
           <t>C7</t>
         </is>
       </c>
-      <c r="B8" s="2">
-        <v>68.834000000000003</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-37.845999999999997</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>65.694000000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-48.271000000000001</v>
+      </c>
+      <c r="D8" s="3">
         <v>90</v>
       </c>
       <c r="E8" t="s">
@@ -276,13 +279,13 @@
           <t>C8</t>
         </is>
       </c>
-      <c r="B9" s="2">
-        <v>73.659999999999997</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-49.783999999999999</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3">
+        <v>70.519999999999996</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-60.209000000000003</v>
+      </c>
+      <c r="D9" s="3">
         <v>180</v>
       </c>
       <c r="E9" t="s">
@@ -295,13 +298,13 @@
           <t>C9</t>
         </is>
       </c>
-      <c r="B10" s="2">
-        <v>73.659999999999997</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-40.640000000000001</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>70.519999999999996</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-51.064999999999998</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -314,13 +317,13 @@
           <t>C10</t>
         </is>
       </c>
-      <c r="B11" s="2">
-        <v>51.75</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-36</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>48.609999999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-46.424999999999997</v>
+      </c>
+      <c r="D11" s="3">
         <v>-90</v>
       </c>
       <c r="E11" t="s">
@@ -333,13 +336,13 @@
           <t>C11</t>
         </is>
       </c>
-      <c r="B12" s="2">
-        <v>73.659999999999997</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-52.07</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>70.519999999999996</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-62.494999999999997</v>
+      </c>
+      <c r="D12" s="3">
         <v>180</v>
       </c>
       <c r="E12" t="s">
@@ -352,13 +355,13 @@
           <t>C12</t>
         </is>
       </c>
-      <c r="B13" s="2">
-        <v>61.722000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-38.862000000000002</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>58.582000000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-49.286999999999999</v>
+      </c>
+      <c r="D13" s="3">
         <v>90</v>
       </c>
       <c r="E13" t="s">
@@ -371,13 +374,13 @@
           <t>C13</t>
         </is>
       </c>
-      <c r="B14" s="2">
-        <v>42.299999999999997</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-41.700000000000003</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-52.125</v>
+      </c>
+      <c r="D14" s="3">
         <v>180</v>
       </c>
       <c r="E14" t="s">
@@ -390,13 +393,13 @@
           <t>C14</t>
         </is>
       </c>
-      <c r="B15" s="2">
-        <v>42.200000000000003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-35.899999999999999</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>39.060000000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-46.325000000000003</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -409,13 +412,13 @@
           <t>C15</t>
         </is>
       </c>
-      <c r="B16" s="2">
-        <v>112.7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-55.399999999999999</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="3">
+        <v>109.56</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-65.825000000000003</v>
+      </c>
+      <c r="D16" s="3">
         <v>-90</v>
       </c>
       <c r="E16" t="s">
@@ -428,13 +431,13 @@
           <t>C16</t>
         </is>
       </c>
-      <c r="B17" s="2">
-        <v>30.600000000000001</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-57.450000000000003</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="3">
+        <v>27.460000000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-67.875</v>
+      </c>
+      <c r="D17" s="3">
         <v>90</v>
       </c>
       <c r="E17" t="s">
@@ -447,13 +450,13 @@
           <t>C17</t>
         </is>
       </c>
-      <c r="B18" s="2">
-        <v>115.5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-55.200000000000003</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="3">
+        <v>112.36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-65.625</v>
+      </c>
+      <c r="D18" s="3">
         <v>90</v>
       </c>
       <c r="E18" t="s">
@@ -466,13 +469,13 @@
           <t>C18</t>
         </is>
       </c>
-      <c r="B19" s="2">
-        <v>113.2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-59.899999999999999</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="3">
+        <v>110.06</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-70.325000000000003</v>
+      </c>
+      <c r="D19" s="3">
         <v>90</v>
       </c>
       <c r="E19" t="s">
@@ -485,13 +488,13 @@
           <t>C19</t>
         </is>
       </c>
-      <c r="B20" s="2">
-        <v>118.3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-55.299999999999997</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="3">
+        <v>115.16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-65.724999999999994</v>
+      </c>
+      <c r="D20" s="3">
         <v>-90</v>
       </c>
       <c r="E20" t="s">
@@ -504,13 +507,13 @@
           <t>C20</t>
         </is>
       </c>
-      <c r="B21" s="2">
-        <v>56.387999999999998</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-43.052999999999997</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="3">
+        <v>53.247999999999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-53.478000000000002</v>
+      </c>
+      <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -523,13 +526,13 @@
           <t>C21</t>
         </is>
       </c>
-      <c r="B22" s="2">
-        <v>88.299999999999997</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-22</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B22" s="3">
+        <v>85.159999999999997</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-32.424999999999997</v>
+      </c>
+      <c r="D22" s="3">
         <v>-90</v>
       </c>
       <c r="E22" t="s">
@@ -542,13 +545,13 @@
           <t>C22</t>
         </is>
       </c>
-      <c r="B23" s="2">
-        <v>34.600000000000001</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-56.75</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="3">
+        <v>31.460000000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-67.174999999999997</v>
+      </c>
+      <c r="D23" s="3">
         <v>-90</v>
       </c>
       <c r="E23" t="s">
@@ -561,13 +564,13 @@
           <t>C23</t>
         </is>
       </c>
-      <c r="B24" s="2">
-        <v>34.600000000000001</v>
-      </c>
-      <c r="C24" s="2">
-        <v>-60.549999999999997</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="B24" s="3">
+        <v>31.460000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-70.974999999999994</v>
+      </c>
+      <c r="D24" s="3">
         <v>90</v>
       </c>
       <c r="E24" t="s">
@@ -580,13 +583,13 @@
           <t>C24</t>
         </is>
       </c>
-      <c r="B25" s="2">
-        <v>66.548000000000002</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-37.845999999999997</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="3">
+        <v>63.408000000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-48.271000000000001</v>
+      </c>
+      <c r="D25" s="3">
         <v>90</v>
       </c>
       <c r="E25" t="s">
@@ -599,13 +602,13 @@
           <t>C25</t>
         </is>
       </c>
-      <c r="B26" s="2">
-        <v>56.387999999999998</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-50.673000000000002</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="B26" s="3">
+        <v>53.247999999999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-61.097999999999999</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -618,13 +621,13 @@
           <t>C26</t>
         </is>
       </c>
-      <c r="B27" s="2">
-        <v>56.642000000000003</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-54.356000000000002</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="3">
+        <v>53.502000000000002</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-64.781000000000006</v>
+      </c>
+      <c r="D27" s="3">
         <v>90</v>
       </c>
       <c r="E27" t="s">
@@ -637,13 +640,13 @@
           <t>C27</t>
         </is>
       </c>
-      <c r="B28" s="2">
-        <v>47.497999999999998</v>
-      </c>
-      <c r="C28" s="2">
-        <v>-44.450000000000003</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="B28" s="3">
+        <v>44.357999999999997</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-54.875</v>
+      </c>
+      <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" t="s">
@@ -656,13 +659,13 @@
           <t>C28</t>
         </is>
       </c>
-      <c r="B29" s="2">
-        <v>66.929000000000002</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-54.356000000000002</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="3">
+        <v>63.789000000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-64.781000000000006</v>
+      </c>
+      <c r="D29" s="3">
         <v>90</v>
       </c>
       <c r="E29" t="s">
@@ -675,13 +678,13 @@
           <t>C29</t>
         </is>
       </c>
-      <c r="B30" s="2">
-        <v>56.387999999999998</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-48.259999999999998</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="B30" s="3">
+        <v>53.247999999999998</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-58.685000000000002</v>
+      </c>
+      <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" t="s">
@@ -694,13 +697,13 @@
           <t>C30</t>
         </is>
       </c>
-      <c r="B31" s="2">
-        <v>56.387999999999998</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-45.466000000000001</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="3">
+        <v>53.247999999999998</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-55.890999999999998</v>
+      </c>
+      <c r="D31" s="3">
         <v>180</v>
       </c>
       <c r="E31" t="s">
@@ -713,13 +716,13 @@
           <t>C31</t>
         </is>
       </c>
-      <c r="B32" s="2">
-        <v>69.087999999999994</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-54.356000000000002</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B32" s="3">
+        <v>65.947999999999993</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-64.781000000000006</v>
+      </c>
+      <c r="D32" s="3">
         <v>90</v>
       </c>
       <c r="E32" t="s">
@@ -732,13 +735,13 @@
           <t>C32</t>
         </is>
       </c>
-      <c r="B33" s="2">
-        <v>64.262</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-59.308999999999997</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="3">
+        <v>61.122</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-69.733999999999995</v>
+      </c>
+      <c r="D33" s="3">
         <v>90</v>
       </c>
       <c r="E33" t="s">
@@ -751,13 +754,13 @@
           <t>C33</t>
         </is>
       </c>
-      <c r="B34" s="2">
-        <v>47.497999999999998</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-50.799999999999997</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="B34" s="3">
+        <v>44.357999999999997</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-61.225000000000001</v>
+      </c>
+      <c r="D34" s="3">
         <v>180</v>
       </c>
       <c r="E34" t="s">
@@ -770,13 +773,13 @@
           <t>C34</t>
         </is>
       </c>
-      <c r="B35" s="2">
-        <v>117.22499999999999</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-63</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="3">
+        <v>114.08499999999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-73.424999999999997</v>
+      </c>
+      <c r="D35" s="3">
         <v>180</v>
       </c>
       <c r="E35" t="s">
@@ -789,13 +792,13 @@
           <t>C35</t>
         </is>
       </c>
-      <c r="B36" s="2">
-        <v>122.64700000000001</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-21.030000000000001</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B36" s="3">
+        <v>119.50700000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-31.454999999999998</v>
+      </c>
+      <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" t="s">
@@ -808,13 +811,13 @@
           <t>C36</t>
         </is>
       </c>
-      <c r="B37" s="2">
-        <v>122</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-55.5</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="B37" s="3">
+        <v>118.86</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-65.924999999999997</v>
+      </c>
+      <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" t="s">
@@ -827,13 +830,13 @@
           <t>C37</t>
         </is>
       </c>
-      <c r="B38" s="2">
-        <v>122.65000000000001</v>
-      </c>
-      <c r="C38" s="2">
-        <v>-24.957000000000001</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B38" s="3">
+        <v>119.51000000000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-35.381999999999998</v>
+      </c>
+      <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" t="s">
@@ -846,13 +849,13 @@
           <t>C38</t>
         </is>
       </c>
-      <c r="B39" s="2">
-        <v>122.59999999999999</v>
-      </c>
-      <c r="C39" s="2">
-        <v>-17.221</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="3">
+        <v>119.45999999999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-27.646000000000001</v>
+      </c>
+      <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" t="s">
@@ -865,13 +868,13 @@
           <t>C39</t>
         </is>
       </c>
-      <c r="B40" s="2">
-        <v>89.400000000000006</v>
-      </c>
-      <c r="C40" s="2">
-        <v>-30.399999999999999</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="3">
+        <v>86.260000000000005</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-40.825000000000003</v>
+      </c>
+      <c r="D40" s="3">
         <v>-90</v>
       </c>
       <c r="E40" t="s">
@@ -884,13 +887,13 @@
           <t>C40</t>
         </is>
       </c>
-      <c r="B41" s="2">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C41" s="2">
-        <v>-30.600000000000001</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="B41" s="3">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-41.024999999999999</v>
+      </c>
+      <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" t="s">
@@ -903,13 +906,13 @@
           <t>C41</t>
         </is>
       </c>
-      <c r="B42" s="2">
-        <v>81.799999999999997</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-22</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="B42" s="3">
+        <v>78.659999999999997</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-32.424999999999997</v>
+      </c>
+      <c r="D42" s="3">
         <v>-90</v>
       </c>
       <c r="E42" t="s">
@@ -922,14 +925,14 @@
           <t>C42</t>
         </is>
       </c>
-      <c r="B43" s="2">
-        <v>38.399999999999999</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-32.5</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
+      <c r="B43" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-45.399999999999999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>180</v>
       </c>
       <c r="E43" t="s">
         <v>0</v>
@@ -941,13 +944,13 @@
           <t>D1</t>
         </is>
       </c>
-      <c r="B44" s="2">
-        <v>64.262</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-37.338000000000001</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="B44" s="3">
+        <v>61.122</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-47.762999999999998</v>
+      </c>
+      <c r="D44" s="3">
         <v>-90</v>
       </c>
       <c r="E44" t="s">
@@ -960,13 +963,13 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="B45" s="2">
-        <v>53.340000000000003</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-43.18</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B45" s="3">
+        <v>50.200000000000003</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-53.604999999999997</v>
+      </c>
+      <c r="D45" s="3">
         <v>90</v>
       </c>
       <c r="E45" t="s">
@@ -979,13 +982,13 @@
           <t>D3</t>
         </is>
       </c>
-      <c r="B46" s="2">
-        <v>50.799999999999997</v>
-      </c>
-      <c r="C46" s="2">
-        <v>-43.18</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="B46" s="3">
+        <v>47.659999999999997</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-53.604999999999997</v>
+      </c>
+      <c r="D46" s="3">
         <v>-90</v>
       </c>
       <c r="E46" t="s">
@@ -998,13 +1001,13 @@
           <t>D4</t>
         </is>
       </c>
-      <c r="B47" s="2">
-        <v>64.388999999999996</v>
-      </c>
-      <c r="C47" s="2">
-        <v>-54.991</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="B47" s="3">
+        <v>61.249000000000002</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-65.415999999999997</v>
+      </c>
+      <c r="D47" s="3">
         <v>90</v>
       </c>
       <c r="E47" t="s">
@@ -1017,13 +1020,13 @@
           <t>D5</t>
         </is>
       </c>
-      <c r="B48" s="2">
-        <v>53.340000000000003</v>
-      </c>
-      <c r="C48" s="2">
-        <v>-52.323999999999998</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="B48" s="3">
+        <v>50.200000000000003</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-62.749000000000002</v>
+      </c>
+      <c r="D48" s="3">
         <v>90</v>
       </c>
       <c r="E48" t="s">
@@ -1036,13 +1039,13 @@
           <t>D6</t>
         </is>
       </c>
-      <c r="B49" s="2">
-        <v>50.799999999999997</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-52.323999999999998</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="3">
+        <v>47.659999999999997</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-62.749000000000002</v>
+      </c>
+      <c r="D49" s="3">
         <v>-90</v>
       </c>
       <c r="E49" t="s">
@@ -1055,13 +1058,13 @@
           <t>D7</t>
         </is>
       </c>
-      <c r="B50" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-42.600000000000001</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="B50" s="3">
+        <v>25.359999999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-53.024999999999999</v>
+      </c>
+      <c r="D50" s="3">
         <v>90</v>
       </c>
       <c r="E50" t="s">
@@ -1074,13 +1077,13 @@
           <t>D8</t>
         </is>
       </c>
-      <c r="B51" s="2">
-        <v>37.045000000000002</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-60.599499999999999</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B51" s="3">
+        <v>33.905000000000001</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-71.024500000000003</v>
+      </c>
+      <c r="D51" s="3">
         <v>-90</v>
       </c>
       <c r="E51" t="s">
@@ -1093,13 +1096,13 @@
           <t>D9</t>
         </is>
       </c>
-      <c r="B52" s="2">
-        <v>39.457999999999998</v>
-      </c>
-      <c r="C52" s="2">
-        <v>-60.599499999999999</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B52" s="3">
+        <v>36.317999999999998</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-71.024500000000003</v>
+      </c>
+      <c r="D52" s="3">
         <v>-90</v>
       </c>
       <c r="E52" t="s">
@@ -1112,13 +1115,13 @@
           <t>D10</t>
         </is>
       </c>
-      <c r="B53" s="2">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="C53" s="2">
-        <v>-41.200000000000003</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="B53" s="3">
+        <v>32.560000000000002</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-51.625</v>
+      </c>
+      <c r="D53" s="3">
         <v>90</v>
       </c>
       <c r="E53" t="s">
@@ -1131,13 +1134,13 @@
           <t>J1</t>
         </is>
       </c>
-      <c r="B54" s="2">
-        <v>29.140000000000001</v>
-      </c>
-      <c r="C54" s="2">
-        <v>-30.300000000000001</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="B54" s="3">
+        <v>25.899999999999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-43.609999999999999</v>
+      </c>
+      <c r="D54" s="3">
         <v>-90</v>
       </c>
       <c r="E54" t="s">
@@ -1150,14 +1153,14 @@
           <t>J4</t>
         </is>
       </c>
-      <c r="B55" s="2">
-        <v>106.750001</v>
-      </c>
-      <c r="C55" s="2">
-        <v>-26.5</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
+      <c r="B55" s="3">
+        <v>103.61</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-31.565000000000001</v>
+      </c>
+      <c r="D55" s="3">
+        <v>180</v>
       </c>
       <c r="E55" t="s">
         <v>0</v>
@@ -1169,14 +1172,14 @@
           <t>J8</t>
         </is>
       </c>
-      <c r="B56" s="2">
-        <v>105.77</v>
-      </c>
-      <c r="C56" s="2">
-        <v>-12.645</v>
-      </c>
-      <c r="D56" s="2">
-        <v>180</v>
+      <c r="B56" s="3">
+        <v>101.45</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-23.239999999999998</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
         <v>0</v>
@@ -1185,17 +1188,17 @@
     <row r="57" spans="1:5">
       <c r="A57" t="inlineStr">
         <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="B57" s="2">
-        <v>57.658000000000001</v>
-      </c>
-      <c r="C57" s="2">
-        <v>-37.084000000000003</v>
-      </c>
-      <c r="D57" s="2">
-        <v>90</v>
+          <t>J9</t>
+        </is>
+      </c>
+      <c r="B57" s="3">
+        <v>25.899999999999999</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-30.440000000000001</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-90</v>
       </c>
       <c r="E57" t="s">
         <v>0</v>
@@ -1204,16 +1207,16 @@
     <row r="58" spans="1:5">
       <c r="A58" t="inlineStr">
         <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="B58" s="2">
-        <v>60.706000000000003</v>
-      </c>
-      <c r="C58" s="2">
-        <v>-55.753</v>
-      </c>
-      <c r="D58" s="2">
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B58" s="3">
+        <v>54.518000000000001</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-47.509</v>
+      </c>
+      <c r="D58" s="3">
         <v>90</v>
       </c>
       <c r="E58" t="s">
@@ -1223,17 +1226,17 @@
     <row r="59" spans="1:5">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B59" s="2">
-        <v>31.949999999999999</v>
-      </c>
-      <c r="C59" s="2">
-        <v>-42.450000000000003</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="B59" s="3">
+        <v>57.566000000000003</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-66.177999999999997</v>
+      </c>
+      <c r="D59" s="3">
+        <v>90</v>
       </c>
       <c r="E59" t="s">
         <v>0</v>
@@ -1242,17 +1245,17 @@
     <row r="60" spans="1:5">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="B60" s="2">
-        <v>51.799999999999997</v>
-      </c>
-      <c r="C60" s="2">
-        <v>-22.225000000000001</v>
-      </c>
-      <c r="D60" s="2">
-        <v>90</v>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B60" s="3">
+        <v>28.809999999999999</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-52.875</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>0</v>
@@ -1261,17 +1264,17 @@
     <row r="61" spans="1:5">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="B61" s="2">
-        <v>51.700000000000003</v>
-      </c>
-      <c r="C61" s="2">
-        <v>-29.199999999999999</v>
-      </c>
-      <c r="D61" s="2">
-        <v>-90</v>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="B61" s="3">
+        <v>48.659999999999997</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-32.649999999999999</v>
+      </c>
+      <c r="D61" s="3">
+        <v>90</v>
       </c>
       <c r="E61" t="s">
         <v>0</v>
@@ -1280,16 +1283,16 @@
     <row r="62" spans="1:5">
       <c r="A62" t="inlineStr">
         <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="B62" s="2">
-        <v>50.899999999999999</v>
-      </c>
-      <c r="C62" s="2">
-        <v>-25.725000000000001</v>
-      </c>
-      <c r="D62" s="2">
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="B62" s="3">
+        <v>48.560000000000002</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-39.625</v>
+      </c>
+      <c r="D62" s="3">
         <v>-90</v>
       </c>
       <c r="E62" t="s">
@@ -1299,16 +1302,16 @@
     <row r="63" spans="1:5">
       <c r="A63" t="inlineStr">
         <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="B63" s="2">
-        <v>37.600000000000001</v>
-      </c>
-      <c r="C63" s="2">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="D63" s="2">
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="B63" s="3">
+        <v>47.759999999999998</v>
+      </c>
+      <c r="C63" s="3">
+        <v>-36.149999999999999</v>
+      </c>
+      <c r="D63" s="3">
         <v>-90</v>
       </c>
       <c r="E63" t="s">
@@ -1318,17 +1321,17 @@
     <row r="64" spans="1:5">
       <c r="A64" t="inlineStr">
         <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="B64" s="2">
-        <v>37.149999999999999</v>
-      </c>
-      <c r="C64" s="2">
-        <v>-57</v>
-      </c>
-      <c r="D64" s="2">
-        <v>-90</v>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="B64" s="3">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-45.350000000000001</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>0</v>
@@ -1337,17 +1340,17 @@
     <row r="65" spans="1:5">
       <c r="A65" t="inlineStr">
         <is>
-          <t>R4</t>
-        </is>
-      </c>
-      <c r="B65" s="2">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C65" s="2">
-        <v>-28.600000000000001</v>
-      </c>
-      <c r="D65" s="2">
-        <v>180</v>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="B65" s="3">
+        <v>34.009999999999998</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-67.424999999999997</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-90</v>
       </c>
       <c r="E65" t="s">
         <v>0</v>
@@ -1356,16 +1359,16 @@
     <row r="66" spans="1:5">
       <c r="A66" t="inlineStr">
         <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="B66" s="2">
-        <v>59.399999999999999</v>
-      </c>
-      <c r="C66" s="2">
-        <v>-23.399999999999999</v>
-      </c>
-      <c r="D66" s="2">
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="B66" s="3">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-39.024999999999999</v>
+      </c>
+      <c r="D66" s="3">
         <v>180</v>
       </c>
       <c r="E66" t="s">
@@ -1375,16 +1378,16 @@
     <row r="67" spans="1:5">
       <c r="A67" t="inlineStr">
         <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="B67" s="2">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C67" s="2">
-        <v>-26.800000000000001</v>
-      </c>
-      <c r="D67" s="2">
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="B67" s="3">
+        <v>56.259999999999998</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-33.825000000000003</v>
+      </c>
+      <c r="D67" s="3">
         <v>180</v>
       </c>
       <c r="E67" t="s">
@@ -1394,17 +1397,17 @@
     <row r="68" spans="1:5">
       <c r="A68" t="inlineStr">
         <is>
-          <t>R7</t>
-        </is>
-      </c>
-      <c r="B68" s="2">
-        <v>37.600000000000001</v>
-      </c>
-      <c r="C68" s="2">
-        <v>-25</v>
-      </c>
-      <c r="D68" s="2">
-        <v>90</v>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="B68" s="3">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-37.225000000000001</v>
+      </c>
+      <c r="D68" s="3">
+        <v>180</v>
       </c>
       <c r="E68" t="s">
         <v>0</v>
@@ -1413,17 +1416,17 @@
     <row r="69" spans="1:5">
       <c r="A69" t="inlineStr">
         <is>
-          <t>R8</t>
-        </is>
-      </c>
-      <c r="B69" s="2">
-        <v>39.457999999999998</v>
-      </c>
-      <c r="C69" s="2">
-        <v>-57</v>
-      </c>
-      <c r="D69" s="2">
-        <v>-90</v>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="B69" s="3">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-40</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
       </c>
       <c r="E69" t="s">
         <v>0</v>
@@ -1432,17 +1435,17 @@
     <row r="70" spans="1:5">
       <c r="A70" t="inlineStr">
         <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="B70" s="2">
-        <v>36.350000000000001</v>
-      </c>
-      <c r="C70" s="2">
-        <v>-45.149999999999999</v>
-      </c>
-      <c r="D70" s="2">
-        <v>180</v>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="B70" s="3">
+        <v>36.317999999999998</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-67.424999999999997</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-90</v>
       </c>
       <c r="E70" t="s">
         <v>0</v>
@@ -1451,17 +1454,17 @@
     <row r="71" spans="1:5">
       <c r="A71" t="inlineStr">
         <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="B71" s="2">
-        <v>110.7</v>
-      </c>
-      <c r="C71" s="2">
-        <v>-55.600000000000001</v>
-      </c>
-      <c r="D71" s="2">
-        <v>-90</v>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="B71" s="3">
+        <v>33.210000000000001</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-55.575000000000003</v>
+      </c>
+      <c r="D71" s="3">
+        <v>180</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
@@ -1470,17 +1473,17 @@
     <row r="72" spans="1:5">
       <c r="A72" t="inlineStr">
         <is>
-          <t>R11</t>
-        </is>
-      </c>
-      <c r="B72" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="C72" s="2">
-        <v>-25.725000000000001</v>
-      </c>
-      <c r="D72" s="2">
-        <v>90</v>
+          <t>R10</t>
+        </is>
+      </c>
+      <c r="B72" s="3">
+        <v>107.56</v>
+      </c>
+      <c r="C72" s="3">
+        <v>-66.025000000000006</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-90</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
@@ -1489,17 +1492,17 @@
     <row r="73" spans="1:5">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R14</t>
-        </is>
-      </c>
-      <c r="B73" s="2">
-        <v>59.399999999999999</v>
-      </c>
-      <c r="C73" s="2">
-        <v>-26.600000000000001</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
+          <t>R11</t>
+        </is>
+      </c>
+      <c r="B73" s="3">
+        <v>49.359999999999999</v>
+      </c>
+      <c r="C73" s="3">
+        <v>-36.149999999999999</v>
+      </c>
+      <c r="D73" s="3">
+        <v>90</v>
       </c>
       <c r="E73" t="s">
         <v>0</v>
@@ -1508,16 +1511,16 @@
     <row r="74" spans="1:5">
       <c r="A74" t="inlineStr">
         <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="B74" s="2">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C74" s="2">
-        <v>-25.100000000000001</v>
-      </c>
-      <c r="D74" s="2">
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="B74" s="3">
+        <v>34.149999999999999</v>
+      </c>
+      <c r="C74" s="3">
+        <v>-31.300000000000001</v>
+      </c>
+      <c r="D74" s="3">
         <v>0</v>
       </c>
       <c r="E74" t="s">
@@ -1527,16 +1530,16 @@
     <row r="75" spans="1:5">
       <c r="A75" t="inlineStr">
         <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="B75" s="2">
-        <v>59.399999999999999</v>
-      </c>
-      <c r="C75" s="2">
-        <v>-25</v>
-      </c>
-      <c r="D75" s="2">
+          <t>R13</t>
+        </is>
+      </c>
+      <c r="B75" s="3">
+        <v>34.174999999999997</v>
+      </c>
+      <c r="C75" s="3">
+        <v>-28.300000000000001</v>
+      </c>
+      <c r="D75" s="3">
         <v>0</v>
       </c>
       <c r="E75" t="s">
@@ -1546,17 +1549,17 @@
     <row r="76" spans="1:5">
       <c r="A76" t="inlineStr">
         <is>
-          <t>R18</t>
-        </is>
-      </c>
-      <c r="B76" s="2">
-        <v>72.081199999999995</v>
-      </c>
-      <c r="C76" s="2">
-        <v>-55.846600000000002</v>
-      </c>
-      <c r="D76" s="2">
-        <v>90</v>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="B76" s="3">
+        <v>56.259999999999998</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-37.024999999999999</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
         <v>0</v>
@@ -1565,17 +1568,17 @@
     <row r="77" spans="1:5">
       <c r="A77" t="inlineStr">
         <is>
-          <t>R19</t>
-        </is>
-      </c>
-      <c r="B77" s="2">
-        <v>52.832000000000001</v>
-      </c>
-      <c r="C77" s="2">
-        <v>-46.481999999999999</v>
-      </c>
-      <c r="D77" s="2">
-        <v>180</v>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="B77" s="3">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="C77" s="3">
+        <v>-35.524999999999999</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>0</v>
@@ -1584,17 +1587,17 @@
     <row r="78" spans="1:5">
       <c r="A78" t="inlineStr">
         <is>
-          <t>R20</t>
-        </is>
-      </c>
-      <c r="B78" s="2">
-        <v>49.530000000000001</v>
-      </c>
-      <c r="C78" s="2">
-        <v>-46.481999999999999</v>
-      </c>
-      <c r="D78" s="2">
-        <v>180</v>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="B78" s="3">
+        <v>56.259999999999998</v>
+      </c>
+      <c r="C78" s="3">
+        <v>-35.424999999999997</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
       </c>
       <c r="E78" t="s">
         <v>0</v>
@@ -1603,17 +1606,17 @@
     <row r="79" spans="1:5">
       <c r="A79" t="inlineStr">
         <is>
-          <t>R21</t>
-        </is>
-      </c>
-      <c r="B79" s="2">
-        <v>32.621000000000002</v>
-      </c>
-      <c r="C79" s="2">
-        <v>-57.225999999999999</v>
-      </c>
-      <c r="D79" s="2">
-        <v>-90</v>
+          <t>R18</t>
+        </is>
+      </c>
+      <c r="B79" s="3">
+        <v>68.941199999999995</v>
+      </c>
+      <c r="C79" s="3">
+        <v>-66.271600000000007</v>
+      </c>
+      <c r="D79" s="3">
+        <v>90</v>
       </c>
       <c r="E79" t="s">
         <v>0</v>
@@ -1622,17 +1625,17 @@
     <row r="80" spans="1:5">
       <c r="A80" t="inlineStr">
         <is>
-          <t>R22</t>
-        </is>
-      </c>
-      <c r="B80" s="2">
-        <v>32.621000000000002</v>
-      </c>
-      <c r="C80" s="2">
-        <v>-60.5</v>
-      </c>
-      <c r="D80" s="2">
-        <v>-90</v>
+          <t>R19</t>
+        </is>
+      </c>
+      <c r="B80" s="3">
+        <v>49.692</v>
+      </c>
+      <c r="C80" s="3">
+        <v>-56.906999999999996</v>
+      </c>
+      <c r="D80" s="3">
+        <v>180</v>
       </c>
       <c r="E80" t="s">
         <v>0</v>
@@ -1641,16 +1644,16 @@
     <row r="81" spans="1:5">
       <c r="A81" t="inlineStr">
         <is>
-          <t>R23</t>
-        </is>
-      </c>
-      <c r="B81" s="2">
-        <v>52.832000000000001</v>
-      </c>
-      <c r="C81" s="2">
-        <v>-48.768000000000001</v>
-      </c>
-      <c r="D81" s="2">
+          <t>R20</t>
+        </is>
+      </c>
+      <c r="B81" s="3">
+        <v>46.390000000000001</v>
+      </c>
+      <c r="C81" s="3">
+        <v>-56.906999999999996</v>
+      </c>
+      <c r="D81" s="3">
         <v>180</v>
       </c>
       <c r="E81" t="s">
@@ -1660,17 +1663,17 @@
     <row r="82" spans="1:5">
       <c r="A82" t="inlineStr">
         <is>
-          <t>R24</t>
-        </is>
-      </c>
-      <c r="B82" s="2">
-        <v>49.530000000000001</v>
-      </c>
-      <c r="C82" s="2">
-        <v>-48.768000000000001</v>
-      </c>
-      <c r="D82" s="2">
-        <v>180</v>
+          <t>R21</t>
+        </is>
+      </c>
+      <c r="B82" s="3">
+        <v>29.481000000000002</v>
+      </c>
+      <c r="C82" s="3">
+        <v>-67.650999999999996</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-90</v>
       </c>
       <c r="E82" t="s">
         <v>0</v>
@@ -1679,17 +1682,17 @@
     <row r="83" spans="1:5">
       <c r="A83" t="inlineStr">
         <is>
-          <t>R26</t>
-        </is>
-      </c>
-      <c r="B83" s="2">
-        <v>117.22499999999999</v>
-      </c>
-      <c r="C83" s="2">
-        <v>-61</v>
-      </c>
-      <c r="D83" s="2">
-        <v>180</v>
+          <t>R22</t>
+        </is>
+      </c>
+      <c r="B83" s="3">
+        <v>29.481000000000002</v>
+      </c>
+      <c r="C83" s="3">
+        <v>-70.924999999999997</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-90</v>
       </c>
       <c r="E83" t="s">
         <v>0</v>
@@ -1698,17 +1701,17 @@
     <row r="84" spans="1:5">
       <c r="A84" t="inlineStr">
         <is>
-          <t>R27</t>
-        </is>
-      </c>
-      <c r="B84" s="2">
-        <v>122.825</v>
-      </c>
-      <c r="C84" s="2">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
+          <t>R23</t>
+        </is>
+      </c>
+      <c r="B84" s="3">
+        <v>49.692</v>
+      </c>
+      <c r="C84" s="3">
+        <v>-59.192999999999998</v>
+      </c>
+      <c r="D84" s="3">
+        <v>180</v>
       </c>
       <c r="E84" t="s">
         <v>0</v>
@@ -1717,17 +1720,17 @@
     <row r="85" spans="1:5">
       <c r="A85" t="inlineStr">
         <is>
-          <t>R28</t>
-        </is>
-      </c>
-      <c r="B85" s="2">
-        <v>121.3</v>
-      </c>
-      <c r="C85" s="2">
-        <v>-57.700000000000003</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
+          <t>R24</t>
+        </is>
+      </c>
+      <c r="B85" s="3">
+        <v>46.390000000000001</v>
+      </c>
+      <c r="C85" s="3">
+        <v>-59.192999999999998</v>
+      </c>
+      <c r="D85" s="3">
+        <v>180</v>
       </c>
       <c r="E85" t="s">
         <v>0</v>
@@ -1736,17 +1739,17 @@
     <row r="86" spans="1:5">
       <c r="A86" t="inlineStr">
         <is>
-          <t>R29</t>
-        </is>
-      </c>
-      <c r="B86" s="2">
-        <v>122.90000000000001</v>
-      </c>
-      <c r="C86" s="2">
-        <v>-22.925000000000001</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
+          <t>R26</t>
+        </is>
+      </c>
+      <c r="B86" s="3">
+        <v>114.08499999999999</v>
+      </c>
+      <c r="C86" s="3">
+        <v>-71.424999999999997</v>
+      </c>
+      <c r="D86" s="3">
+        <v>180</v>
       </c>
       <c r="E86" t="s">
         <v>0</v>
@@ -1755,16 +1758,16 @@
     <row r="87" spans="1:5">
       <c r="A87" t="inlineStr">
         <is>
-          <t>R30</t>
-        </is>
-      </c>
-      <c r="B87" s="2">
-        <v>122.825</v>
-      </c>
-      <c r="C87" s="2">
-        <v>-15.321</v>
-      </c>
-      <c r="D87" s="2">
+          <t>R27</t>
+        </is>
+      </c>
+      <c r="B87" s="3">
+        <v>119.685</v>
+      </c>
+      <c r="C87" s="3">
+        <v>-29.524999999999999</v>
+      </c>
+      <c r="D87" s="3">
         <v>0</v>
       </c>
       <c r="E87" t="s">
@@ -1774,17 +1777,17 @@
     <row r="88" spans="1:5">
       <c r="A88" t="inlineStr">
         <is>
-          <t>R31</t>
-        </is>
-      </c>
-      <c r="B88" s="2">
-        <v>30.25</v>
-      </c>
-      <c r="C88" s="2">
-        <v>-38.899999999999999</v>
-      </c>
-      <c r="D88" s="2">
-        <v>180</v>
+          <t>R28</t>
+        </is>
+      </c>
+      <c r="B88" s="3">
+        <v>118.16</v>
+      </c>
+      <c r="C88" s="3">
+        <v>-68.125</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
       </c>
       <c r="E88" t="s">
         <v>0</v>
@@ -1793,17 +1796,17 @@
     <row r="89" spans="1:5">
       <c r="A89" t="inlineStr">
         <is>
-          <t>R32</t>
-        </is>
-      </c>
-      <c r="B89" s="2">
-        <v>81.5</v>
-      </c>
-      <c r="C89" s="2">
-        <v>-28.475000000000001</v>
-      </c>
-      <c r="D89" s="2">
-        <v>-90</v>
+          <t>R29</t>
+        </is>
+      </c>
+      <c r="B89" s="3">
+        <v>119.76000000000001</v>
+      </c>
+      <c r="C89" s="3">
+        <v>-33.350000000000001</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" t="s">
         <v>0</v>
@@ -1812,17 +1815,17 @@
     <row r="90" spans="1:5">
       <c r="A90" t="inlineStr">
         <is>
-          <t>R33</t>
-        </is>
-      </c>
-      <c r="B90" s="2">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C90" s="2">
-        <v>-23.350000000000001</v>
-      </c>
-      <c r="D90" s="2">
-        <v>180</v>
+          <t>R30</t>
+        </is>
+      </c>
+      <c r="B90" s="3">
+        <v>119.685</v>
+      </c>
+      <c r="C90" s="3">
+        <v>-25.745999999999999</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
       </c>
       <c r="E90" t="s">
         <v>0</v>
@@ -1831,16 +1834,16 @@
     <row r="91" spans="1:5">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TH1</t>
-        </is>
-      </c>
-      <c r="B91" s="2">
-        <v>74.113200000000006</v>
-      </c>
-      <c r="C91" s="2">
-        <v>-55.846600000000002</v>
-      </c>
-      <c r="D91" s="2">
+          <t>R31</t>
+        </is>
+      </c>
+      <c r="B91" s="3">
+        <v>23.25</v>
+      </c>
+      <c r="C91" s="3">
+        <v>-52.225000000000001</v>
+      </c>
+      <c r="D91" s="3">
         <v>-90</v>
       </c>
       <c r="E91" t="s">
@@ -1850,16 +1853,16 @@
     <row r="92" spans="1:5">
       <c r="A92" t="inlineStr">
         <is>
-          <t>U1</t>
-        </is>
-      </c>
-      <c r="B92" s="2">
-        <v>78.799999999999997</v>
-      </c>
-      <c r="C92" s="2">
-        <v>-43.399999999999999</v>
-      </c>
-      <c r="D92" s="2">
+          <t>R32</t>
+        </is>
+      </c>
+      <c r="B92" s="3">
+        <v>78.359999999999999</v>
+      </c>
+      <c r="C92" s="3">
+        <v>-38.899999999999999</v>
+      </c>
+      <c r="D92" s="3">
         <v>-90</v>
       </c>
       <c r="E92" t="s">
@@ -1869,17 +1872,17 @@
     <row r="93" spans="1:5">
       <c r="A93" t="inlineStr">
         <is>
-          <t>U2</t>
-        </is>
-      </c>
-      <c r="B93" s="2">
-        <v>66.650000000000006</v>
-      </c>
-      <c r="C93" s="2">
-        <v>-25.962499999999999</v>
-      </c>
-      <c r="D93" s="2">
-        <v>-90</v>
+          <t>R33</t>
+        </is>
+      </c>
+      <c r="B93" s="3">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="C93" s="3">
+        <v>-33.774999999999999</v>
+      </c>
+      <c r="D93" s="3">
+        <v>180</v>
       </c>
       <c r="E93" t="s">
         <v>0</v>
@@ -1888,17 +1891,17 @@
     <row r="94" spans="1:5">
       <c r="A94" t="inlineStr">
         <is>
-          <t>U3</t>
-        </is>
-      </c>
-      <c r="B94" s="2">
-        <v>65.024000000000001</v>
-      </c>
-      <c r="C94" s="2">
-        <v>-46.228000000000002</v>
-      </c>
-      <c r="D94" s="2">
-        <v>180</v>
+          <t>TH1</t>
+        </is>
+      </c>
+      <c r="B94" s="3">
+        <v>70.973200000000006</v>
+      </c>
+      <c r="C94" s="3">
+        <v>-66.271600000000007</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-90</v>
       </c>
       <c r="E94" t="s">
         <v>0</v>
@@ -1907,17 +1910,17 @@
     <row r="95" spans="1:5">
       <c r="A95" t="inlineStr">
         <is>
-          <t>U4</t>
-        </is>
-      </c>
-      <c r="B95" s="2">
-        <v>38.399999999999999</v>
-      </c>
-      <c r="C95" s="2">
-        <v>-29</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="B95" s="3">
+        <v>75.659999999999997</v>
+      </c>
+      <c r="C95" s="3">
+        <v>-53.825000000000003</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-90</v>
       </c>
       <c r="E95" t="s">
         <v>0</v>
@@ -1926,17 +1929,17 @@
     <row r="96" spans="1:5">
       <c r="A96" t="inlineStr">
         <is>
-          <t>U5</t>
-        </is>
-      </c>
-      <c r="B96" s="2">
-        <v>42.200000000000003</v>
-      </c>
-      <c r="C96" s="2">
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="D96" s="2">
-        <v>180</v>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B96" s="3">
+        <v>63.509999999999998</v>
+      </c>
+      <c r="C96" s="3">
+        <v>-36.387500000000003</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-90</v>
       </c>
       <c r="E96" t="s">
         <v>0</v>
@@ -1945,17 +1948,17 @@
     <row r="97" spans="1:5">
       <c r="A97" t="inlineStr">
         <is>
-          <t>U6</t>
-        </is>
-      </c>
-      <c r="B97" s="2">
-        <v>115.45</v>
-      </c>
-      <c r="C97" s="2">
-        <v>-39.200000000000003</v>
-      </c>
-      <c r="D97" s="2">
-        <v>90</v>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="B97" s="3">
+        <v>61.884</v>
+      </c>
+      <c r="C97" s="3">
+        <v>-56.652999999999999</v>
+      </c>
+      <c r="D97" s="3">
+        <v>180</v>
       </c>
       <c r="E97" t="s">
         <v>0</v>
@@ -1964,17 +1967,17 @@
     <row r="98" spans="1:5">
       <c r="A98" t="inlineStr">
         <is>
-          <t>U7</t>
-        </is>
-      </c>
-      <c r="B98" s="2">
-        <v>85.150000000000006</v>
-      </c>
-      <c r="C98" s="2">
-        <v>-28.600000000000001</v>
-      </c>
-      <c r="D98" s="2">
-        <v>-90</v>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="B98" s="3">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="C98" s="3">
+        <v>-43.362499999999997</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
         <v>0</v>
@@ -1983,16 +1986,16 @@
     <row r="99" spans="1:5">
       <c r="A99" t="inlineStr">
         <is>
-          <t>U8</t>
-        </is>
-      </c>
-      <c r="B99" s="2">
-        <v>96.724999999999994</v>
-      </c>
-      <c r="C99" s="2">
-        <v>-48.450000000000003</v>
-      </c>
-      <c r="D99" s="2">
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="B99" s="3">
+        <v>39.060000000000002</v>
+      </c>
+      <c r="C99" s="3">
+        <v>-49.225000000000001</v>
+      </c>
+      <c r="D99" s="3">
         <v>180</v>
       </c>
       <c r="E99" t="s">
@@ -2002,17 +2005,17 @@
     <row r="100" spans="1:5">
       <c r="A100" t="inlineStr">
         <is>
-          <t>U9</t>
-        </is>
-      </c>
-      <c r="B100" s="2">
-        <v>44.899999999999999</v>
-      </c>
-      <c r="C100" s="2">
-        <v>-27.199999999999999</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="B100" s="3">
+        <v>112.31</v>
+      </c>
+      <c r="C100" s="3">
+        <v>-49.625</v>
+      </c>
+      <c r="D100" s="3">
+        <v>90</v>
       </c>
       <c r="E100" t="s">
         <v>0</v>
@@ -2021,16 +2024,16 @@
     <row r="101" spans="1:5">
       <c r="A101" t="inlineStr">
         <is>
-          <t>U11</t>
-        </is>
-      </c>
-      <c r="B101" s="2">
-        <v>35.399999999999999</v>
-      </c>
-      <c r="C101" s="2">
-        <v>-50.140999999999998</v>
-      </c>
-      <c r="D101" s="2">
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="B101" s="3">
+        <v>82.010000000000005</v>
+      </c>
+      <c r="C101" s="3">
+        <v>-39.024999999999999</v>
+      </c>
+      <c r="D101" s="3">
         <v>-90</v>
       </c>
       <c r="E101" t="s">
@@ -2040,19 +2043,76 @@
     <row r="102" spans="1:5">
       <c r="A102" t="inlineStr">
         <is>
+          <t>U8</t>
+        </is>
+      </c>
+      <c r="B102" s="3">
+        <v>93.584999999999994</v>
+      </c>
+      <c r="C102" s="3">
+        <v>-58.875</v>
+      </c>
+      <c r="D102" s="3">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="B103" s="3">
+        <v>41.759999999999998</v>
+      </c>
+      <c r="C103" s="3">
+        <v>-37.625</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>U11</t>
+        </is>
+      </c>
+      <c r="B104" s="3">
+        <v>32.259999999999998</v>
+      </c>
+      <c r="C104" s="3">
+        <v>-60.566000000000003</v>
+      </c>
+      <c r="D104" s="3">
+        <v>-90</v>
+      </c>
+      <c r="E104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>Y1</t>
         </is>
       </c>
-      <c r="B102" s="2">
-        <v>85.049999999999997</v>
-      </c>
-      <c r="C102" s="2">
-        <v>-22.550000000000001</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="B105" s="3">
+        <v>81.909999999999997</v>
+      </c>
+      <c r="C105" s="3">
+        <v>-32.975000000000001</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
         <v>0</v>
       </c>
     </row>
